--- a/TP01/Data.xlsx
+++ b/TP01/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samy/Desktop/MasterIS/Thése/TP_Dosimetrie_M2/TP1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samy/Desktop/PhD/TP_Dosimetrie_M2/TP01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAED3545-40E2-0F47-AC11-8537F627CEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8AD28F1-88BD-7A4B-8ED2-EF61FAA39CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{7417579A-3F7C-3046-8773-C0DACC266AE7}"/>
+    <workbookView xWindow="60" yWindow="780" windowWidth="28800" windowHeight="16020" xr2:uid="{7417579A-3F7C-3046-8773-C0DACC266AE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -123,9 +123,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -163,7 +163,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -269,7 +269,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -411,7 +411,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -422,7 +422,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -488,7 +488,7 @@
         <v>0.1</v>
       </c>
       <c r="D3">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="E3">
         <v>0.49</v>
@@ -497,7 +497,7 @@
         <v>0.1</v>
       </c>
       <c r="G3">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -520,7 +520,7 @@
         <v>0.15</v>
       </c>
       <c r="G4">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -534,7 +534,7 @@
         <v>0.1</v>
       </c>
       <c r="D5">
-        <v>2.5000000000000001E-2</v>
+        <v>0.1</v>
       </c>
       <c r="E5">
         <v>0.18</v>
@@ -543,7 +543,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="G5">
-        <v>0.05</v>
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -557,7 +557,7 @@
         <v>0.05</v>
       </c>
       <c r="D6">
-        <v>4.7E-2</v>
+        <v>0.05</v>
       </c>
       <c r="E6">
         <v>0.09</v>
@@ -566,7 +566,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="G6">
-        <v>0.04</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -580,7 +580,7 @@
         <v>0.02</v>
       </c>
       <c r="D7">
-        <v>2.2499999999999999E-2</v>
+        <v>0.02</v>
       </c>
       <c r="E7">
         <v>0.04</v>
@@ -589,7 +589,7 @@
         <v>0.02</v>
       </c>
       <c r="G7">
-        <v>1.4999999999999999E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -603,7 +603,7 @@
         <v>1.8E-3</v>
       </c>
       <c r="D8">
-        <v>1E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="E8">
         <v>8.0000000000000002E-3</v>
@@ -648,7 +648,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FFE14C7-791A-C44F-9E44-E8E604C65803}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -715,7 +717,7 @@
         <v>0.2</v>
       </c>
       <c r="D3">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E3">
         <v>0.6</v>
@@ -738,7 +740,7 @@
         <v>0.09</v>
       </c>
       <c r="D4">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="E4">
         <v>0.4</v>
@@ -761,7 +763,7 @@
         <v>0.1</v>
       </c>
       <c r="D5">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="E5">
         <v>0.125</v>
@@ -770,7 +772,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="G5">
-        <v>2.5000000000000001E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -784,7 +786,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="D6">
-        <v>3.5000000000000003E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="E6">
         <v>0.06</v>
@@ -793,7 +795,7 @@
         <v>0.04</v>
       </c>
       <c r="G6">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -816,7 +818,7 @@
         <v>0.01</v>
       </c>
       <c r="G7">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -830,7 +832,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G8">
-        <v>4.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -844,7 +846,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="D9">
-        <v>2.0000000000000001E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="E9">
         <v>4.0000000000000001E-3</v>
@@ -853,7 +855,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G9">
-        <v>3.2000000000000002E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
   </sheetData>
